--- a/data/pca/factorExposure/factorExposure_2012-01-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-01-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01732484753927068</v>
+        <v>0.01632477414719411</v>
       </c>
       <c r="C2">
-        <v>-0.03168873341214858</v>
+        <v>0.02657146641367622</v>
       </c>
       <c r="D2">
-        <v>0.01579227476786842</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.01357758381278619</v>
+      </c>
+      <c r="E2">
+        <v>-0.01320106537995944</v>
+      </c>
+      <c r="F2">
+        <v>-0.01463721567423022</v>
+      </c>
+      <c r="G2">
+        <v>-0.01048940043771694</v>
+      </c>
+      <c r="H2">
+        <v>0.05046304833242968</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07391595133629345</v>
+        <v>0.08769497681312899</v>
       </c>
       <c r="C4">
-        <v>-0.05337510857440913</v>
+        <v>0.04140685337554184</v>
       </c>
       <c r="D4">
-        <v>0.08186370790299752</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06613432061829885</v>
+      </c>
+      <c r="E4">
+        <v>-0.008506105534227031</v>
+      </c>
+      <c r="F4">
+        <v>-0.03691548210213474</v>
+      </c>
+      <c r="G4">
+        <v>-0.002947819968226653</v>
+      </c>
+      <c r="H4">
+        <v>-0.03825060361365282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1093484965349635</v>
+        <v>0.1195165985591478</v>
       </c>
       <c r="C6">
-        <v>-0.05024448220847347</v>
+        <v>0.03499551342478414</v>
       </c>
       <c r="D6">
-        <v>0.006982195194026631</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01429069353500721</v>
+      </c>
+      <c r="E6">
+        <v>0.02024503965468068</v>
+      </c>
+      <c r="F6">
+        <v>-0.05369879770902565</v>
+      </c>
+      <c r="G6">
+        <v>-0.03541783839033844</v>
+      </c>
+      <c r="H6">
+        <v>0.1173192153457739</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.05307012867126461</v>
+        <v>0.06249648933104194</v>
       </c>
       <c r="C7">
-        <v>-0.02448572486432748</v>
+        <v>0.01503419566328593</v>
       </c>
       <c r="D7">
-        <v>0.04081525615505165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04886471944504685</v>
+      </c>
+      <c r="E7">
+        <v>-0.03828682679016917</v>
+      </c>
+      <c r="F7">
+        <v>-0.03298028623685221</v>
+      </c>
+      <c r="G7">
+        <v>0.03346517833491446</v>
+      </c>
+      <c r="H7">
+        <v>-0.0117984409176461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.04016395122295386</v>
+        <v>0.04136462222047482</v>
       </c>
       <c r="C8">
-        <v>-0.01444412360001233</v>
+        <v>0.01021152217063869</v>
       </c>
       <c r="D8">
-        <v>0.06345009993001778</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02701514304201958</v>
+      </c>
+      <c r="E8">
+        <v>-0.02019267409643392</v>
+      </c>
+      <c r="F8">
+        <v>-0.05820870060911923</v>
+      </c>
+      <c r="G8">
+        <v>-0.05026207364840964</v>
+      </c>
+      <c r="H8">
+        <v>-0.002793836999307574</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.06874153992452668</v>
+        <v>0.07922164680297734</v>
       </c>
       <c r="C9">
-        <v>-0.03990346871355724</v>
+        <v>0.02816315079571262</v>
       </c>
       <c r="D9">
-        <v>0.0717263423001452</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06331285052463549</v>
+      </c>
+      <c r="E9">
+        <v>-0.02892549176217179</v>
+      </c>
+      <c r="F9">
+        <v>-0.03673947371498466</v>
+      </c>
+      <c r="G9">
+        <v>-0.00900262324303862</v>
+      </c>
+      <c r="H9">
+        <v>-0.05463748541437113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03108644302733085</v>
+        <v>0.03535070007347272</v>
       </c>
       <c r="C10">
-        <v>-0.02449977370595433</v>
+        <v>0.0418406096993029</v>
       </c>
       <c r="D10">
-        <v>-0.1684434335426959</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1711251283288824</v>
+      </c>
+      <c r="E10">
+        <v>-0.03475056831891653</v>
+      </c>
+      <c r="F10">
+        <v>-0.0502295860672444</v>
+      </c>
+      <c r="G10">
+        <v>0.02179412079223044</v>
+      </c>
+      <c r="H10">
+        <v>0.03329695840016264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07303934679491302</v>
+        <v>0.07710635567055597</v>
       </c>
       <c r="C11">
-        <v>-0.04327370126895522</v>
+        <v>0.02542886310873821</v>
       </c>
       <c r="D11">
-        <v>0.05686792518320679</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06289297316954637</v>
+      </c>
+      <c r="E11">
+        <v>0.004811065379819878</v>
+      </c>
+      <c r="F11">
+        <v>-0.02989638408290417</v>
+      </c>
+      <c r="G11">
+        <v>-0.003630810407542966</v>
+      </c>
+      <c r="H11">
+        <v>-0.09293952607649635</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.06088620696965094</v>
+        <v>0.06936380901220672</v>
       </c>
       <c r="C12">
-        <v>-0.05166376669531673</v>
+        <v>0.03694485864104659</v>
       </c>
       <c r="D12">
-        <v>0.04809356044428861</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04872056073183124</v>
+      </c>
+      <c r="E12">
+        <v>-0.01140214876376114</v>
+      </c>
+      <c r="F12">
+        <v>-0.02196253237632589</v>
+      </c>
+      <c r="G12">
+        <v>-0.004187819220966461</v>
+      </c>
+      <c r="H12">
+        <v>-0.04575578480788389</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.06254303284946172</v>
+        <v>0.0657660064332215</v>
       </c>
       <c r="C13">
-        <v>-0.03225624787595198</v>
+        <v>0.01961289102359107</v>
       </c>
       <c r="D13">
-        <v>0.05894523739084945</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.041158422455849</v>
+      </c>
+      <c r="E13">
+        <v>-0.01160178308025223</v>
+      </c>
+      <c r="F13">
+        <v>-0.007810331754820355</v>
+      </c>
+      <c r="G13">
+        <v>0.005258868572842557</v>
+      </c>
+      <c r="H13">
+        <v>-0.05156872097192127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03300956626422548</v>
+        <v>0.0402435215174443</v>
       </c>
       <c r="C14">
-        <v>-0.0308928804997154</v>
+        <v>0.02836536683310009</v>
       </c>
       <c r="D14">
-        <v>0.003055295529682897</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01058209464508362</v>
+      </c>
+      <c r="E14">
+        <v>-0.03162138630272349</v>
+      </c>
+      <c r="F14">
+        <v>-0.01497419807341403</v>
+      </c>
+      <c r="G14">
+        <v>-0.009893150243475568</v>
+      </c>
+      <c r="H14">
+        <v>-0.06079225498898776</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.0406857845704361</v>
+        <v>0.04024039334467262</v>
       </c>
       <c r="C15">
-        <v>-0.008860740173618473</v>
+        <v>0.003348059183247326</v>
       </c>
       <c r="D15">
-        <v>0.01946628334654179</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.006064207781703494</v>
+      </c>
+      <c r="E15">
+        <v>-0.03547505933370667</v>
+      </c>
+      <c r="F15">
+        <v>-0.0005889506087507417</v>
+      </c>
+      <c r="G15">
+        <v>-0.02508363236074193</v>
+      </c>
+      <c r="H15">
+        <v>-0.03323632829065908</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.0619654704873888</v>
+        <v>0.07148831149344795</v>
       </c>
       <c r="C16">
-        <v>-0.04074357591635631</v>
+        <v>0.0274673286798184</v>
       </c>
       <c r="D16">
-        <v>0.04786787211090499</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06108383809527631</v>
+      </c>
+      <c r="E16">
+        <v>-0.004057052882334169</v>
+      </c>
+      <c r="F16">
+        <v>-0.0287924098037275</v>
+      </c>
+      <c r="G16">
+        <v>0.000184631314179151</v>
+      </c>
+      <c r="H16">
+        <v>-0.0620997718086106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0621419442715521</v>
+        <v>0.06315841704211998</v>
       </c>
       <c r="C20">
-        <v>-0.02379506087280321</v>
+        <v>0.009975655690005839</v>
       </c>
       <c r="D20">
-        <v>0.05271429973781385</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03961187920257107</v>
+      </c>
+      <c r="E20">
+        <v>-0.01827088174785127</v>
+      </c>
+      <c r="F20">
+        <v>-0.02870305593910935</v>
+      </c>
+      <c r="G20">
+        <v>-0.01555676407467354</v>
+      </c>
+      <c r="H20">
+        <v>-0.05296275149371847</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02581764789752565</v>
+        <v>0.02585655064855851</v>
       </c>
       <c r="C21">
-        <v>0.002909337898188336</v>
+        <v>-0.00951502292656619</v>
       </c>
       <c r="D21">
-        <v>0.0269760351958477</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02446142094765884</v>
+      </c>
+      <c r="E21">
+        <v>-0.04362079133351766</v>
+      </c>
+      <c r="F21">
+        <v>0.01565676842643939</v>
+      </c>
+      <c r="G21">
+        <v>-0.01644475912437975</v>
+      </c>
+      <c r="H21">
+        <v>0.05550851582674592</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.07852702334048579</v>
+        <v>0.07211229128522587</v>
       </c>
       <c r="C22">
-        <v>-0.05935563519541585</v>
+        <v>0.03897330038878661</v>
       </c>
       <c r="D22">
-        <v>0.1199265717313171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.08414921805211273</v>
+      </c>
+      <c r="E22">
+        <v>-0.603750329812327</v>
+      </c>
+      <c r="F22">
+        <v>0.1389914590473543</v>
+      </c>
+      <c r="G22">
+        <v>0.07526596604291692</v>
+      </c>
+      <c r="H22">
+        <v>0.1733506078312389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.07950794234889655</v>
+        <v>0.07296113818258625</v>
       </c>
       <c r="C23">
-        <v>-0.05809568731552576</v>
+        <v>0.03753860514601014</v>
       </c>
       <c r="D23">
-        <v>0.1213133372916038</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.084897290178929</v>
+      </c>
+      <c r="E23">
+        <v>-0.6028338390921564</v>
+      </c>
+      <c r="F23">
+        <v>0.137882108183649</v>
+      </c>
+      <c r="G23">
+        <v>0.07444441934936834</v>
+      </c>
+      <c r="H23">
+        <v>0.1700829578565531</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.07462889071248389</v>
+        <v>0.08070191699813038</v>
       </c>
       <c r="C24">
-        <v>-0.0509657064209523</v>
+        <v>0.03394306054164344</v>
       </c>
       <c r="D24">
-        <v>0.05918151086781186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06104304737498548</v>
+      </c>
+      <c r="E24">
+        <v>-0.01685816331342545</v>
+      </c>
+      <c r="F24">
+        <v>-0.0381388949645547</v>
+      </c>
+      <c r="G24">
+        <v>-0.01526965370423056</v>
+      </c>
+      <c r="H24">
+        <v>-0.05294850484394925</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07444622694531142</v>
+        <v>0.07903118183378867</v>
       </c>
       <c r="C25">
-        <v>-0.05435630026538038</v>
+        <v>0.0370713986134922</v>
       </c>
       <c r="D25">
-        <v>0.0668124986445683</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05317605173887537</v>
+      </c>
+      <c r="E25">
+        <v>-0.02001926747808338</v>
+      </c>
+      <c r="F25">
+        <v>-0.03013343010027992</v>
+      </c>
+      <c r="G25">
+        <v>-0.02202078489271106</v>
+      </c>
+      <c r="H25">
+        <v>-0.06030716877352501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04600791143977935</v>
+        <v>0.04780810499138075</v>
       </c>
       <c r="C26">
-        <v>-0.009222804467835511</v>
+        <v>0.00184577666334449</v>
       </c>
       <c r="D26">
-        <v>0.01099765738059926</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01664424387712309</v>
+      </c>
+      <c r="E26">
+        <v>-0.04317910210350955</v>
+      </c>
+      <c r="F26">
+        <v>-0.03159906481766401</v>
+      </c>
+      <c r="G26">
+        <v>0.007631771906173189</v>
+      </c>
+      <c r="H26">
+        <v>-0.05082612339485161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05553594778618256</v>
+        <v>0.06345362084837365</v>
       </c>
       <c r="C28">
-        <v>-0.06932779708252317</v>
+        <v>0.09182301523474214</v>
       </c>
       <c r="D28">
-        <v>-0.3081664449293611</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.3037199288041421</v>
+      </c>
+      <c r="E28">
+        <v>-0.03288162470545122</v>
+      </c>
+      <c r="F28">
+        <v>-0.05659827661992125</v>
+      </c>
+      <c r="G28">
+        <v>-0.03653741673534626</v>
+      </c>
+      <c r="H28">
+        <v>0.04636882670010379</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.04205817777560884</v>
+        <v>0.04889387052326497</v>
       </c>
       <c r="C29">
-        <v>-0.02911289973177488</v>
+        <v>0.02622686934961508</v>
       </c>
       <c r="D29">
-        <v>0.0105298314059229</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.008668391556597817</v>
+      </c>
+      <c r="E29">
+        <v>-0.06049823505499043</v>
+      </c>
+      <c r="F29">
+        <v>-0.01357462078195984</v>
+      </c>
+      <c r="G29">
+        <v>0.00736919197651806</v>
+      </c>
+      <c r="H29">
+        <v>-0.07158197914612691</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1283723933810848</v>
+        <v>0.1299707492325584</v>
       </c>
       <c r="C30">
-        <v>-0.08694989031002519</v>
+        <v>0.06156614127599376</v>
       </c>
       <c r="D30">
-        <v>0.09662185834895586</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.07135069291821573</v>
+      </c>
+      <c r="E30">
+        <v>-0.08320719326978257</v>
+      </c>
+      <c r="F30">
+        <v>0.0001967976451578427</v>
+      </c>
+      <c r="G30">
+        <v>-0.07885884802029068</v>
+      </c>
+      <c r="H30">
+        <v>0.04427725414548542</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04455825833524001</v>
+        <v>0.04870664593317592</v>
       </c>
       <c r="C31">
-        <v>-0.02213269533343547</v>
+        <v>0.01403083841755581</v>
       </c>
       <c r="D31">
-        <v>0.02343522026746543</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0296104286195967</v>
+      </c>
+      <c r="E31">
+        <v>-0.02417248927831635</v>
+      </c>
+      <c r="F31">
+        <v>-0.01285053200449766</v>
+      </c>
+      <c r="G31">
+        <v>0.0246275732864254</v>
+      </c>
+      <c r="H31">
+        <v>-0.06529516087480652</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03790172982708826</v>
+        <v>0.03866381693243592</v>
       </c>
       <c r="C32">
-        <v>-0.02544328431322693</v>
+        <v>0.02187881763220523</v>
       </c>
       <c r="D32">
-        <v>0.02702017462157931</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01192286098788167</v>
+      </c>
+      <c r="E32">
+        <v>-0.05243047271745484</v>
+      </c>
+      <c r="F32">
+        <v>0.004630165478952949</v>
+      </c>
+      <c r="G32">
+        <v>-0.02657108999614761</v>
+      </c>
+      <c r="H32">
+        <v>-0.07400666212150843</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08434462170887579</v>
+        <v>0.09611312151140171</v>
       </c>
       <c r="C33">
-        <v>-0.03913058954736291</v>
+        <v>0.02543016583091717</v>
       </c>
       <c r="D33">
-        <v>0.06104338441824504</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04677293281816099</v>
+      </c>
+      <c r="E33">
+        <v>-0.01519432536604461</v>
+      </c>
+      <c r="F33">
+        <v>-0.007575094988383472</v>
+      </c>
+      <c r="G33">
+        <v>0.006297179061258451</v>
+      </c>
+      <c r="H33">
+        <v>-0.0594504463509701</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05884710336064169</v>
+        <v>0.06376428737380894</v>
       </c>
       <c r="C34">
-        <v>-0.02543182081743454</v>
+        <v>0.01150322093093233</v>
       </c>
       <c r="D34">
-        <v>0.05773653173414092</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05109681159472046</v>
+      </c>
+      <c r="E34">
+        <v>-0.007501456461927472</v>
+      </c>
+      <c r="F34">
+        <v>-0.02029364529479757</v>
+      </c>
+      <c r="G34">
+        <v>-0.0006379092243588131</v>
+      </c>
+      <c r="H34">
+        <v>-0.0659768827354331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03700813184433031</v>
+        <v>0.03939306102070626</v>
       </c>
       <c r="C35">
-        <v>-0.007833387430790014</v>
+        <v>0.003242141066119314</v>
       </c>
       <c r="D35">
-        <v>0.01810812677065185</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01168601605142591</v>
+      </c>
+      <c r="E35">
+        <v>-0.02188031090330204</v>
+      </c>
+      <c r="F35">
+        <v>0.01528560092439131</v>
+      </c>
+      <c r="G35">
+        <v>0.005141130401468511</v>
+      </c>
+      <c r="H35">
+        <v>-0.01793528861788969</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02286550708594803</v>
+        <v>0.02909944880198259</v>
       </c>
       <c r="C36">
-        <v>-0.01754068446287781</v>
+        <v>0.01514739981238274</v>
       </c>
       <c r="D36">
-        <v>0.0244106615387032</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01756829624650706</v>
+      </c>
+      <c r="E36">
+        <v>-0.03110297482850558</v>
+      </c>
+      <c r="F36">
+        <v>-0.02218409828651613</v>
+      </c>
+      <c r="G36">
+        <v>0.008434282684679254</v>
+      </c>
+      <c r="H36">
+        <v>-0.04501973841654409</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.04231408813684317</v>
+        <v>0.04465008256881405</v>
       </c>
       <c r="C38">
-        <v>-0.00152898317916318</v>
+        <v>-0.003826144258566627</v>
       </c>
       <c r="D38">
-        <v>0.01747337194572932</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01804838884362385</v>
+      </c>
+      <c r="E38">
+        <v>-0.05131872613275559</v>
+      </c>
+      <c r="F38">
+        <v>0.005443187779641487</v>
+      </c>
+      <c r="G38">
+        <v>-0.007559475995291487</v>
+      </c>
+      <c r="H38">
+        <v>-0.03674981005620962</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.09260939790472382</v>
+        <v>0.1007942174996728</v>
       </c>
       <c r="C39">
-        <v>-0.06859899295314748</v>
+        <v>0.04946624054386525</v>
       </c>
       <c r="D39">
-        <v>0.05594949044117895</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.06534399283499034</v>
+      </c>
+      <c r="E39">
+        <v>-0.009850549901748993</v>
+      </c>
+      <c r="F39">
+        <v>0.004709353546691795</v>
+      </c>
+      <c r="G39">
+        <v>-0.0386241649551762</v>
+      </c>
+      <c r="H39">
+        <v>-0.05868262269811744</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.07940403740488601</v>
+        <v>0.06937714960377786</v>
       </c>
       <c r="C40">
-        <v>-0.03270131679974549</v>
+        <v>0.01167487684648351</v>
       </c>
       <c r="D40">
-        <v>-0.003758957489459519</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01652911421235951</v>
+      </c>
+      <c r="E40">
+        <v>-0.0304857859469456</v>
+      </c>
+      <c r="F40">
+        <v>0.04688719379341973</v>
+      </c>
+      <c r="G40">
+        <v>-0.03845027919780459</v>
+      </c>
+      <c r="H40">
+        <v>0.07969646290256829</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04241490673123393</v>
+        <v>0.04423842316005452</v>
       </c>
       <c r="C41">
-        <v>-0.004850519672919411</v>
+        <v>-0.004188878986240067</v>
       </c>
       <c r="D41">
-        <v>0.03348457657173982</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.0337946541217707</v>
+      </c>
+      <c r="E41">
+        <v>-0.001275781920749266</v>
+      </c>
+      <c r="F41">
+        <v>0.01550733161366991</v>
+      </c>
+      <c r="G41">
+        <v>-0.01154864378335562</v>
+      </c>
+      <c r="H41">
+        <v>-0.04001443443199645</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.05103791740883316</v>
+        <v>0.05926754469563594</v>
       </c>
       <c r="C43">
-        <v>-0.02518679960270408</v>
+        <v>0.01773119400419288</v>
       </c>
       <c r="D43">
-        <v>0.01610524501767679</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02594803687756579</v>
+      </c>
+      <c r="E43">
+        <v>-0.02114679227063207</v>
+      </c>
+      <c r="F43">
+        <v>-0.01335935120767025</v>
+      </c>
+      <c r="G43">
+        <v>0.02023696688164103</v>
+      </c>
+      <c r="H43">
+        <v>-0.0607415473277621</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09788031223697857</v>
+        <v>0.09764364595037907</v>
       </c>
       <c r="C44">
-        <v>-0.08585458236918216</v>
+        <v>0.06216075586773241</v>
       </c>
       <c r="D44">
-        <v>0.07904707117370395</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05819495694691815</v>
+      </c>
+      <c r="E44">
+        <v>-0.0831074777453825</v>
+      </c>
+      <c r="F44">
+        <v>-0.07120696770716882</v>
+      </c>
+      <c r="G44">
+        <v>-0.03270581366274362</v>
+      </c>
+      <c r="H44">
+        <v>-0.04324807216840252</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.0259070484386421</v>
+        <v>0.03464926253849275</v>
       </c>
       <c r="C46">
-        <v>-0.01541744210394411</v>
+        <v>0.0123282609043511</v>
       </c>
       <c r="D46">
-        <v>0.02417449626581792</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03396171949035588</v>
+      </c>
+      <c r="E46">
+        <v>-0.03340070653682493</v>
+      </c>
+      <c r="F46">
+        <v>-0.01431274565276269</v>
+      </c>
+      <c r="G46">
+        <v>0.008853600039127347</v>
+      </c>
+      <c r="H46">
+        <v>-0.02701107964224853</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.0311563561912107</v>
+        <v>0.0387755227794471</v>
       </c>
       <c r="C47">
-        <v>-0.02355824687554617</v>
+        <v>0.02002008806021935</v>
       </c>
       <c r="D47">
-        <v>0.006505259819590213</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.006371716940121199</v>
+      </c>
+      <c r="E47">
+        <v>-0.043998566289346</v>
+      </c>
+      <c r="F47">
+        <v>-0.01307777841809847</v>
+      </c>
+      <c r="G47">
+        <v>0.04363911106492498</v>
+      </c>
+      <c r="H47">
+        <v>-0.03000710743659146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03385798944735682</v>
+        <v>0.03826104370303993</v>
       </c>
       <c r="C48">
-        <v>-0.01739442770597174</v>
+        <v>0.0107283420547437</v>
       </c>
       <c r="D48">
-        <v>0.03086790636834858</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02013540324672535</v>
+      </c>
+      <c r="E48">
+        <v>-0.03945243057407628</v>
+      </c>
+      <c r="F48">
+        <v>-0.008650359645220457</v>
+      </c>
+      <c r="G48">
+        <v>-0.01329494925444811</v>
+      </c>
+      <c r="H48">
+        <v>-0.03856122855508388</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1617850960513471</v>
+        <v>0.1897410680618725</v>
       </c>
       <c r="C49">
-        <v>-0.04863818389486002</v>
+        <v>0.03024556384200953</v>
       </c>
       <c r="D49">
-        <v>-0.002694521282466809</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.03067464247388272</v>
+      </c>
+      <c r="E49">
+        <v>0.1578123821699211</v>
+      </c>
+      <c r="F49">
+        <v>-0.0545034660329646</v>
+      </c>
+      <c r="G49">
+        <v>0.06593909160983494</v>
+      </c>
+      <c r="H49">
+        <v>0.2232621059536384</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.0396719526033399</v>
+        <v>0.04592204858654104</v>
       </c>
       <c r="C50">
-        <v>-0.01948921721368976</v>
+        <v>0.0135332704645159</v>
       </c>
       <c r="D50">
-        <v>0.04151863058970381</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03352408491898011</v>
+      </c>
+      <c r="E50">
+        <v>-0.04188364820983199</v>
+      </c>
+      <c r="F50">
+        <v>-0.01425506292225925</v>
+      </c>
+      <c r="G50">
+        <v>0.02215753057562707</v>
+      </c>
+      <c r="H50">
+        <v>-0.06679607652155189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02817083969109198</v>
+        <v>0.02958823337915721</v>
       </c>
       <c r="C51">
-        <v>-0.009699351629640305</v>
+        <v>0.003424159794981385</v>
       </c>
       <c r="D51">
-        <v>0.009997770218247834</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01197584826659665</v>
+      </c>
+      <c r="E51">
+        <v>-0.01141778061058701</v>
+      </c>
+      <c r="F51">
+        <v>-0.01468681428425777</v>
+      </c>
+      <c r="G51">
+        <v>0.0001002462525232012</v>
+      </c>
+      <c r="H51">
+        <v>-0.0001479965481617251</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1550977387300726</v>
+        <v>0.1627530181848441</v>
       </c>
       <c r="C53">
-        <v>-0.0719273973922802</v>
+        <v>0.05051489627398522</v>
       </c>
       <c r="D53">
-        <v>0.009968386932138584</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.02108190068783759</v>
+      </c>
+      <c r="E53">
+        <v>0.03049120575167239</v>
+      </c>
+      <c r="F53">
+        <v>-0.01219204858985119</v>
+      </c>
+      <c r="G53">
+        <v>0.0268241137863815</v>
+      </c>
+      <c r="H53">
+        <v>-0.1749122052173057</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05731765031757307</v>
+        <v>0.05809657147645857</v>
       </c>
       <c r="C54">
-        <v>-0.02270345868269378</v>
+        <v>0.01292187693326052</v>
       </c>
       <c r="D54">
-        <v>0.0207975486815632</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01490217603846612</v>
+      </c>
+      <c r="E54">
+        <v>-0.04524417481094211</v>
+      </c>
+      <c r="F54">
+        <v>-0.003898575931673089</v>
+      </c>
+      <c r="G54">
+        <v>-0.02237313526092187</v>
+      </c>
+      <c r="H54">
+        <v>-0.05162124814350027</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1002637084033242</v>
+        <v>0.1044010546890925</v>
       </c>
       <c r="C55">
-        <v>-0.04923563685954958</v>
+        <v>0.03347091592654823</v>
       </c>
       <c r="D55">
-        <v>0.0193770679160789</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02338470740643653</v>
+      </c>
+      <c r="E55">
+        <v>-0.007806409720256652</v>
+      </c>
+      <c r="F55">
+        <v>-0.01276761227104861</v>
+      </c>
+      <c r="G55">
+        <v>0.01538820684405345</v>
+      </c>
+      <c r="H55">
+        <v>-0.1561288768031627</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1515396894098223</v>
+        <v>0.1617682243855643</v>
       </c>
       <c r="C56">
-        <v>-0.08353327792409473</v>
+        <v>0.06048553822666235</v>
       </c>
       <c r="D56">
-        <v>0.01872131203809523</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.02464219893813285</v>
+      </c>
+      <c r="E56">
+        <v>0.02311993018214473</v>
+      </c>
+      <c r="F56">
+        <v>-0.03212720165980841</v>
+      </c>
+      <c r="G56">
+        <v>0.041035422776332</v>
+      </c>
+      <c r="H56">
+        <v>-0.1764465675713136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1302478574168004</v>
+        <v>0.1002739574857904</v>
       </c>
       <c r="C58">
-        <v>0.005401044451145127</v>
+        <v>-0.04500433799483942</v>
       </c>
       <c r="D58">
-        <v>0.03002319918082106</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03326403931726747</v>
+      </c>
+      <c r="E58">
+        <v>-0.1452390212874886</v>
+      </c>
+      <c r="F58">
+        <v>-0.003330429220395544</v>
+      </c>
+      <c r="G58">
+        <v>0.016914171394096</v>
+      </c>
+      <c r="H58">
+        <v>0.1822502220629404</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1253496023082861</v>
+        <v>0.138910909340434</v>
       </c>
       <c r="C59">
-        <v>-0.07550433453141155</v>
+        <v>0.09784851688111791</v>
       </c>
       <c r="D59">
-        <v>-0.3709936391878561</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3624159008450556</v>
+      </c>
+      <c r="E59">
+        <v>-0.02528430983681928</v>
+      </c>
+      <c r="F59">
+        <v>-0.0115207333303346</v>
+      </c>
+      <c r="G59">
+        <v>0.01404877953764172</v>
+      </c>
+      <c r="H59">
+        <v>-0.0003828432253109454</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2066232010907468</v>
+        <v>0.2354271286514227</v>
       </c>
       <c r="C60">
-        <v>-0.08923499954918188</v>
+        <v>0.06226551113203695</v>
       </c>
       <c r="D60">
-        <v>0.02567974826316157</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04383455561274538</v>
+      </c>
+      <c r="E60">
+        <v>0.1040278424920608</v>
+      </c>
+      <c r="F60">
+        <v>-0.0550329200913506</v>
+      </c>
+      <c r="G60">
+        <v>-0.018925272113404</v>
+      </c>
+      <c r="H60">
+        <v>0.1508220880510299</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.08316957467738982</v>
+        <v>0.08985696975352486</v>
       </c>
       <c r="C61">
-        <v>-0.04927592713531299</v>
+        <v>0.03563433821617401</v>
       </c>
       <c r="D61">
-        <v>0.04362811038214694</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04168506291433304</v>
+      </c>
+      <c r="E61">
+        <v>-0.002646651458652377</v>
+      </c>
+      <c r="F61">
+        <v>-0.002757788427595506</v>
+      </c>
+      <c r="G61">
+        <v>-0.002621465937061993</v>
+      </c>
+      <c r="H61">
+        <v>-0.06641807317543717</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.131547182145019</v>
+        <v>0.1388138763015796</v>
       </c>
       <c r="C62">
-        <v>-0.05959563772040303</v>
+        <v>0.0377496046064381</v>
       </c>
       <c r="D62">
-        <v>0.02032963546370601</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.03345182922476701</v>
+      </c>
+      <c r="E62">
+        <v>0.05799162581164229</v>
+      </c>
+      <c r="F62">
+        <v>-0.01052655402148633</v>
+      </c>
+      <c r="G62">
+        <v>-0.002481233249689103</v>
+      </c>
+      <c r="H62">
+        <v>-0.1700306467991447</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.0523316552996478</v>
+        <v>0.05144317711068968</v>
       </c>
       <c r="C63">
-        <v>-0.02318513802620312</v>
+        <v>0.01382250624242148</v>
       </c>
       <c r="D63">
-        <v>0.02308970418880478</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02152326341129005</v>
+      </c>
+      <c r="E63">
+        <v>-0.04965031983705554</v>
+      </c>
+      <c r="F63">
+        <v>0.006078828555518868</v>
+      </c>
+      <c r="G63">
+        <v>-0.01798619178670905</v>
+      </c>
+      <c r="H63">
+        <v>-0.04683377743094145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1037400350176515</v>
+        <v>0.1073057779559733</v>
       </c>
       <c r="C64">
-        <v>-0.03020125169310261</v>
+        <v>0.01551352086172506</v>
       </c>
       <c r="D64">
-        <v>0.03953200440605645</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03140961406797339</v>
+      </c>
+      <c r="E64">
+        <v>-0.03204049154693522</v>
+      </c>
+      <c r="F64">
+        <v>-0.041784513864326</v>
+      </c>
+      <c r="G64">
+        <v>-0.05018655089091294</v>
+      </c>
+      <c r="H64">
+        <v>-0.04761879796333932</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1267123237624385</v>
+        <v>0.12737007356334</v>
       </c>
       <c r="C65">
-        <v>-0.05735137956208535</v>
+        <v>0.03932774673977765</v>
       </c>
       <c r="D65">
-        <v>-0.001480602547673985</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01010264825089844</v>
+      </c>
+      <c r="E65">
+        <v>0.002833150785211066</v>
+      </c>
+      <c r="F65">
+        <v>-0.0547084609550795</v>
+      </c>
+      <c r="G65">
+        <v>-0.05522858837620701</v>
+      </c>
+      <c r="H65">
+        <v>0.150921650151559</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1482894116199707</v>
+        <v>0.1529642187461214</v>
       </c>
       <c r="C66">
-        <v>-0.0670745466670539</v>
+        <v>0.03886461660566388</v>
       </c>
       <c r="D66">
-        <v>0.1055114798546471</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09982701670858468</v>
+      </c>
+      <c r="E66">
+        <v>0.01836449928091208</v>
+      </c>
+      <c r="F66">
+        <v>-0.005491867495827141</v>
+      </c>
+      <c r="G66">
+        <v>-0.04245906361242564</v>
+      </c>
+      <c r="H66">
+        <v>-0.1251609352644562</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07495876667095416</v>
+        <v>0.08494095849966482</v>
       </c>
       <c r="C67">
-        <v>-0.008818562915399593</v>
+        <v>0.001111418667259879</v>
       </c>
       <c r="D67">
-        <v>0.02155718822622978</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02902595858257574</v>
+      </c>
+      <c r="E67">
+        <v>-0.01758977341736079</v>
+      </c>
+      <c r="F67">
+        <v>-0.01999391641622874</v>
+      </c>
+      <c r="G67">
+        <v>0.01012725851070007</v>
+      </c>
+      <c r="H67">
+        <v>-0.03868923868079862</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.06114705242105063</v>
+        <v>0.05908622323824258</v>
       </c>
       <c r="C68">
-        <v>-0.04949056855707679</v>
+        <v>0.06828030471358039</v>
       </c>
       <c r="D68">
-        <v>-0.2566615879180517</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2678170717799098</v>
+      </c>
+      <c r="E68">
+        <v>-0.03798151559779279</v>
+      </c>
+      <c r="F68">
+        <v>-0.01476907120446279</v>
+      </c>
+      <c r="G68">
+        <v>0.008827471293524297</v>
+      </c>
+      <c r="H68">
+        <v>-0.006002251104486783</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05172618374821428</v>
+        <v>0.05297134358981043</v>
       </c>
       <c r="C69">
-        <v>-0.01496898804551666</v>
+        <v>0.004937515132855297</v>
       </c>
       <c r="D69">
-        <v>0.02164011367173455</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01609363997364822</v>
+      </c>
+      <c r="E69">
+        <v>-0.02574130555118439</v>
+      </c>
+      <c r="F69">
+        <v>0.01124194250686294</v>
+      </c>
+      <c r="G69">
+        <v>0.02217268261191283</v>
+      </c>
+      <c r="H69">
+        <v>-0.05207504386074521</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.003653424147470931</v>
+        <v>0.02754397550335095</v>
       </c>
       <c r="C70">
-        <v>0.009020875285584295</v>
+        <v>-0.003818636860587921</v>
       </c>
       <c r="D70">
-        <v>-0.006998107752964069</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.002723304555589777</v>
+      </c>
+      <c r="E70">
+        <v>0.02598601123340786</v>
+      </c>
+      <c r="F70">
+        <v>-0.01191250284888554</v>
+      </c>
+      <c r="G70">
+        <v>0.01933821144757182</v>
+      </c>
+      <c r="H70">
+        <v>0.0260693068728819</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.06015299862469393</v>
+        <v>0.06141237111257318</v>
       </c>
       <c r="C71">
-        <v>-0.04924124954509106</v>
+        <v>0.07373715250582187</v>
       </c>
       <c r="D71">
-        <v>-0.2935927732862293</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2932535794224573</v>
+      </c>
+      <c r="E71">
+        <v>-0.03384917384502013</v>
+      </c>
+      <c r="F71">
+        <v>-0.04404556934385159</v>
+      </c>
+      <c r="G71">
+        <v>-0.001980124301973756</v>
+      </c>
+      <c r="H71">
+        <v>-0.008522130980358571</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1423741056434671</v>
+        <v>0.1446771945402215</v>
       </c>
       <c r="C72">
-        <v>-0.05796866782715103</v>
+        <v>0.03298165996052379</v>
       </c>
       <c r="D72">
-        <v>0.006904586811927412</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.002026592563654073</v>
+      </c>
+      <c r="E72">
+        <v>0.07783720480025742</v>
+      </c>
+      <c r="F72">
+        <v>0.1694546281628456</v>
+      </c>
+      <c r="G72">
+        <v>-0.1166915625455008</v>
+      </c>
+      <c r="H72">
+        <v>-0.01611533850013778</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2844591642293975</v>
+        <v>0.2886233900650768</v>
       </c>
       <c r="C73">
-        <v>-0.09293302500598136</v>
+        <v>0.03622736653161785</v>
       </c>
       <c r="D73">
-        <v>0.05004685178652205</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09200217711630054</v>
+      </c>
+      <c r="E73">
+        <v>0.2214543983892994</v>
+      </c>
+      <c r="F73">
+        <v>-0.08860902589500205</v>
+      </c>
+      <c r="G73">
+        <v>0.1314674369400565</v>
+      </c>
+      <c r="H73">
+        <v>0.493300541130144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.0816983323168209</v>
+        <v>0.09150118404532785</v>
       </c>
       <c r="C74">
-        <v>-0.0747201343585472</v>
+        <v>0.05954091116891461</v>
       </c>
       <c r="D74">
-        <v>0.01012675673138374</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03234475357573584</v>
+      </c>
+      <c r="E74">
+        <v>0.003199405904716593</v>
+      </c>
+      <c r="F74">
+        <v>0.0004847015649376177</v>
+      </c>
+      <c r="G74">
+        <v>0.054251083883341</v>
+      </c>
+      <c r="H74">
+        <v>-0.1156203449604303</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.09693383058472159</v>
+        <v>0.1017696617792151</v>
       </c>
       <c r="C75">
-        <v>-0.04746822470161686</v>
+        <v>0.02670485667846458</v>
       </c>
       <c r="D75">
-        <v>0.009538437750099294</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.01625777083644537</v>
+      </c>
+      <c r="E75">
+        <v>-0.001561626634781234</v>
+      </c>
+      <c r="F75">
+        <v>-0.02057948136129604</v>
+      </c>
+      <c r="G75">
+        <v>0.02973709525097358</v>
+      </c>
+      <c r="H75">
+        <v>-0.1060337929463459</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1322178349611762</v>
+        <v>0.1428165969394227</v>
       </c>
       <c r="C76">
-        <v>-0.07805190045851142</v>
+        <v>0.05733844379416179</v>
       </c>
       <c r="D76">
-        <v>0.04380653452076071</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04673871816645596</v>
+      </c>
+      <c r="E76">
+        <v>-0.01401281946924241</v>
+      </c>
+      <c r="F76">
+        <v>-0.04898295851916103</v>
+      </c>
+      <c r="G76">
+        <v>0.02462283245152298</v>
+      </c>
+      <c r="H76">
+        <v>-0.199841903630419</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1182551722070507</v>
+        <v>0.1073741399932984</v>
       </c>
       <c r="C77">
-        <v>-0.007549576086761493</v>
+        <v>-0.019479542034333</v>
       </c>
       <c r="D77">
-        <v>0.07771262184389248</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.03166521378558312</v>
+      </c>
+      <c r="E77">
+        <v>-0.02035688668526186</v>
+      </c>
+      <c r="F77">
+        <v>-0.103703944284323</v>
+      </c>
+      <c r="G77">
+        <v>-0.8946578304303114</v>
+      </c>
+      <c r="H77">
+        <v>0.09739918805239949</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.1062505819298569</v>
+        <v>0.1445469569250033</v>
       </c>
       <c r="C78">
-        <v>-0.0349123091157174</v>
+        <v>0.03059399086177881</v>
       </c>
       <c r="D78">
-        <v>0.08712406185107478</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08254959726389398</v>
+      </c>
+      <c r="E78">
+        <v>-0.05508068201261697</v>
+      </c>
+      <c r="F78">
+        <v>-0.05538028816754519</v>
+      </c>
+      <c r="G78">
+        <v>-0.08118566793150171</v>
+      </c>
+      <c r="H78">
+        <v>0.0201879191740424</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1489106583586695</v>
+        <v>0.151645935808102</v>
       </c>
       <c r="C79">
-        <v>-0.06698571590194441</v>
+        <v>0.03940069333994186</v>
       </c>
       <c r="D79">
-        <v>0.02490822276608511</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02795428375423361</v>
+      </c>
+      <c r="E79">
+        <v>0.0180492449332557</v>
+      </c>
+      <c r="F79">
+        <v>-0.02150965140182509</v>
+      </c>
+      <c r="G79">
+        <v>0.04767032956233375</v>
+      </c>
+      <c r="H79">
+        <v>-0.1584792723634796</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04213681899115963</v>
+        <v>0.0432530990923793</v>
       </c>
       <c r="C80">
-        <v>-0.01910493442893155</v>
+        <v>0.0139966163527774</v>
       </c>
       <c r="D80">
-        <v>0.02607309291370002</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01138751642913241</v>
+      </c>
+      <c r="E80">
+        <v>0.03037222655276741</v>
+      </c>
+      <c r="F80">
+        <v>-0.007906925689640751</v>
+      </c>
+      <c r="G80">
+        <v>0.02176434589185986</v>
+      </c>
+      <c r="H80">
+        <v>-0.039467278217762</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1191208050091825</v>
+        <v>0.1209038786208764</v>
       </c>
       <c r="C81">
-        <v>-0.05896848229415</v>
+        <v>0.0365247985044205</v>
       </c>
       <c r="D81">
-        <v>0.03107913788527402</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.02503160818676949</v>
+      </c>
+      <c r="E81">
+        <v>-0.008259130391862504</v>
+      </c>
+      <c r="F81">
+        <v>-0.02069137658381889</v>
+      </c>
+      <c r="G81">
+        <v>0.06238679943575152</v>
+      </c>
+      <c r="H81">
+        <v>-0.1448586613802678</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1306170600495745</v>
+        <v>0.1315123366209997</v>
       </c>
       <c r="C82">
-        <v>-0.07137349192660979</v>
+        <v>0.04977560565894096</v>
       </c>
       <c r="D82">
-        <v>0.01850131789089814</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.02925890440226043</v>
+      </c>
+      <c r="E82">
+        <v>0.02139776861807162</v>
+      </c>
+      <c r="F82">
+        <v>-0.04851470685040759</v>
+      </c>
+      <c r="G82">
+        <v>0.05547572862855053</v>
+      </c>
+      <c r="H82">
+        <v>-0.2041234265436018</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.07424328910988548</v>
+        <v>0.08483291753271288</v>
       </c>
       <c r="C83">
-        <v>0.01897266360549931</v>
+        <v>-0.03157901881622979</v>
       </c>
       <c r="D83">
-        <v>0.01898202517236059</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.02856417106861638</v>
+      </c>
+      <c r="E83">
+        <v>-0.02127037666058007</v>
+      </c>
+      <c r="F83">
+        <v>-0.05631330683709346</v>
+      </c>
+      <c r="G83">
+        <v>0.06771575182032874</v>
+      </c>
+      <c r="H83">
+        <v>0.03949741934358733</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02969818769706884</v>
+        <v>0.03687617596349662</v>
       </c>
       <c r="C84">
-        <v>-0.02755978845467917</v>
+        <v>0.02220848931088074</v>
       </c>
       <c r="D84">
-        <v>0.02347495345155706</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0319514807811578</v>
+      </c>
+      <c r="E84">
+        <v>-0.029474762051153</v>
+      </c>
+      <c r="F84">
+        <v>0.05382468766735821</v>
+      </c>
+      <c r="G84">
+        <v>0.06310634160761065</v>
+      </c>
+      <c r="H84">
+        <v>-0.006551254913942709</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1209433526588543</v>
+        <v>0.122941576934797</v>
       </c>
       <c r="C85">
-        <v>-0.046314974917916</v>
+        <v>0.02459838992058104</v>
       </c>
       <c r="D85">
-        <v>0.0259111246638908</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.0234467287757355</v>
+      </c>
+      <c r="E85">
+        <v>-0.01746258746496708</v>
+      </c>
+      <c r="F85">
+        <v>-0.04725242150377505</v>
+      </c>
+      <c r="G85">
+        <v>0.04315946465696868</v>
+      </c>
+      <c r="H85">
+        <v>-0.1537135506576572</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.05439929724712884</v>
+        <v>0.05830311193250712</v>
       </c>
       <c r="C86">
-        <v>-0.0203019972421466</v>
+        <v>0.01034411217656265</v>
       </c>
       <c r="D86">
-        <v>0.03472061092065941</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.03167762796824382</v>
+      </c>
+      <c r="E86">
+        <v>-0.05554211886819815</v>
+      </c>
+      <c r="F86">
+        <v>-0.02747909785304241</v>
+      </c>
+      <c r="G86">
+        <v>0.02875251607535934</v>
+      </c>
+      <c r="H86">
+        <v>0.01183055994545779</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1188984926133305</v>
+        <v>0.1226799702329701</v>
       </c>
       <c r="C87">
-        <v>-0.06299680798330706</v>
+        <v>0.03249518268574993</v>
       </c>
       <c r="D87">
-        <v>0.08221075688241787</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07450313212054635</v>
+      </c>
+      <c r="E87">
+        <v>-0.01494376381427646</v>
+      </c>
+      <c r="F87">
+        <v>-0.008085051982814355</v>
+      </c>
+      <c r="G87">
+        <v>-0.1302594381256667</v>
+      </c>
+      <c r="H87">
+        <v>0.0284014489383709</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05345557365773822</v>
+        <v>0.06112765117904839</v>
       </c>
       <c r="C88">
-        <v>-0.02868015310403614</v>
+        <v>0.01997640695137466</v>
       </c>
       <c r="D88">
-        <v>0.02218053998544411</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03539608623131093</v>
+      </c>
+      <c r="E88">
+        <v>-0.0158972323488352</v>
+      </c>
+      <c r="F88">
+        <v>-0.01033544877819833</v>
+      </c>
+      <c r="G88">
+        <v>-0.002460014142456562</v>
+      </c>
+      <c r="H88">
+        <v>-0.05215265115290636</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.09096486233162132</v>
+        <v>0.09729508095094108</v>
       </c>
       <c r="C89">
-        <v>-0.07126315959429304</v>
+        <v>0.09711757081247767</v>
       </c>
       <c r="D89">
-        <v>-0.3315766904041346</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3486019809825636</v>
+      </c>
+      <c r="E89">
+        <v>-0.07038191748863133</v>
+      </c>
+      <c r="F89">
+        <v>-0.081113774219539</v>
+      </c>
+      <c r="G89">
+        <v>0.01732948860237551</v>
+      </c>
+      <c r="H89">
+        <v>-0.009623381978863003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07668124928766762</v>
+        <v>0.07941346957654277</v>
       </c>
       <c r="C90">
-        <v>-0.05879582187082277</v>
+        <v>0.07973683680157465</v>
       </c>
       <c r="D90">
-        <v>-0.3115178077267038</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.3027516636004627</v>
+      </c>
+      <c r="E90">
+        <v>-0.06725617242171014</v>
+      </c>
+      <c r="F90">
+        <v>-0.005260300045625613</v>
+      </c>
+      <c r="G90">
+        <v>-0.0005942226444273533</v>
+      </c>
+      <c r="H90">
+        <v>-0.006785236533825707</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08882401167310393</v>
+        <v>0.09096963708617678</v>
       </c>
       <c r="C91">
-        <v>-0.0506165363399796</v>
+        <v>0.03074062482391647</v>
       </c>
       <c r="D91">
-        <v>0.02534158218517189</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03182894116725092</v>
+      </c>
+      <c r="E91">
+        <v>-0.005909087617861864</v>
+      </c>
+      <c r="F91">
+        <v>-0.003611469660096038</v>
+      </c>
+      <c r="G91">
+        <v>0.05064944720496067</v>
+      </c>
+      <c r="H91">
+        <v>-0.0800402086220616</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.07747301708244188</v>
+        <v>0.07994920699506071</v>
       </c>
       <c r="C92">
-        <v>-0.07427756989075456</v>
+        <v>0.09890020614727807</v>
       </c>
       <c r="D92">
-        <v>-0.3329606092421866</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3387745975436881</v>
+      </c>
+      <c r="E92">
+        <v>-0.03841032522581751</v>
+      </c>
+      <c r="F92">
+        <v>-0.04204582218493175</v>
+      </c>
+      <c r="G92">
+        <v>-0.014552649611084</v>
+      </c>
+      <c r="H92">
+        <v>-0.01826847501696076</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06835452053719913</v>
+        <v>0.07616166803970886</v>
       </c>
       <c r="C93">
-        <v>-0.06553510234183725</v>
+        <v>0.09252693350663697</v>
       </c>
       <c r="D93">
-        <v>-0.3079074576686437</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.3035291685061328</v>
+      </c>
+      <c r="E93">
+        <v>-0.02208024795025272</v>
+      </c>
+      <c r="F93">
+        <v>-0.03490800058216513</v>
+      </c>
+      <c r="G93">
+        <v>-0.02126205377540959</v>
+      </c>
+      <c r="H93">
+        <v>0.01255473379708145</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1353263604195037</v>
+        <v>0.1292703052206266</v>
       </c>
       <c r="C94">
-        <v>-0.04415065898664391</v>
+        <v>0.01400476627896004</v>
       </c>
       <c r="D94">
-        <v>0.04060549818030329</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.046673389845738</v>
+      </c>
+      <c r="E94">
+        <v>0.01859964222083419</v>
+      </c>
+      <c r="F94">
+        <v>-0.01279381801120752</v>
+      </c>
+      <c r="G94">
+        <v>0.06724625727449937</v>
+      </c>
+      <c r="H94">
+        <v>-0.09559559674259249</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1245493549945175</v>
+        <v>0.1287273259568112</v>
       </c>
       <c r="C95">
-        <v>-0.02646702306892482</v>
+        <v>2.912559405207556e-05</v>
       </c>
       <c r="D95">
-        <v>0.05475550217866673</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.0641695155322137</v>
+      </c>
+      <c r="E95">
+        <v>-0.007035220703291421</v>
+      </c>
+      <c r="F95">
+        <v>-0.03402194022278143</v>
+      </c>
+      <c r="G95">
+        <v>-0.02144763061523648</v>
+      </c>
+      <c r="H95">
+        <v>0.05112991690998645</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2203827983479698</v>
+        <v>0.2038364557504135</v>
       </c>
       <c r="C97">
-        <v>-0.04032184236064664</v>
+        <v>-0.002713999442671721</v>
       </c>
       <c r="D97">
-        <v>-0.1031070918020288</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.07793211178423234</v>
+      </c>
+      <c r="E97">
+        <v>0.1741833908441326</v>
+      </c>
+      <c r="F97">
+        <v>0.9109589942747259</v>
+      </c>
+      <c r="G97">
+        <v>-0.0748364959946987</v>
+      </c>
+      <c r="H97">
+        <v>-0.01991341127367457</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2491738884931085</v>
+        <v>0.2763373172432</v>
       </c>
       <c r="C98">
-        <v>-0.0587280771302182</v>
+        <v>0.02338216279593593</v>
       </c>
       <c r="D98">
-        <v>0.03588649042862301</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.05096867740558094</v>
+      </c>
+      <c r="E98">
+        <v>0.1919756665993038</v>
+      </c>
+      <c r="F98">
+        <v>-0.05596468330358335</v>
+      </c>
+      <c r="G98">
+        <v>0.2292529611607984</v>
+      </c>
+      <c r="H98">
+        <v>0.2925562576756351</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.4010716262318007</v>
+        <v>0.271733956781157</v>
       </c>
       <c r="C99">
-        <v>0.8981960154996672</v>
+        <v>-0.9297235405251256</v>
       </c>
       <c r="D99">
-        <v>-0.0569536235327254</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.1678610658124105</v>
+      </c>
+      <c r="E99">
+        <v>-0.07070496559130039</v>
+      </c>
+      <c r="F99">
+        <v>-0.05899485281843811</v>
+      </c>
+      <c r="G99">
+        <v>0.02630314005986129</v>
+      </c>
+      <c r="H99">
+        <v>-0.07175840864671919</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04189792904079725</v>
+        <v>0.0488262231247682</v>
       </c>
       <c r="C101">
-        <v>-0.02924527858571756</v>
+        <v>0.02647069153964658</v>
       </c>
       <c r="D101">
-        <v>0.01115256703456396</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.008836239842788562</v>
+      </c>
+      <c r="E101">
+        <v>-0.06046384820957109</v>
+      </c>
+      <c r="F101">
+        <v>-0.01325539774801213</v>
+      </c>
+      <c r="G101">
+        <v>0.007762496034735211</v>
+      </c>
+      <c r="H101">
+        <v>-0.07043577637312883</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
